--- a/fears_md/data/pharmacokinetics_library.xlsx
+++ b/fears_md/data/pharmacokinetics_library.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kinge2/repos/fears_md/fears_md/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eshanking/repos/fears_md/fears_md/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E4523E-27E8-EE47-AEA4-DE4788498120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C0D6AC-60A3-2D49-BA4C-0B722A840496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7180" yWindow="5520" windowWidth="27640" windowHeight="16940" xr2:uid="{352161B8-E53E-1A42-B37D-71E6DF80842D}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15960" xr2:uid="{352161B8-E53E-1A42-B37D-71E6DF80842D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -108,9 +109,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -148,7 +149,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -254,7 +255,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -396,7 +397,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -407,7 +408,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,10 +435,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -448,10 +449,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
